--- a/학습자료/단답형/영어_단어_유의어.xlsx
+++ b/학습자료/단답형/영어_단어_유의어.xlsx
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -15372,7 +15372,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756">
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894">
@@ -18832,7 +18832,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">

--- a/학습자료/단답형/영어_단어_유의어.xlsx
+++ b/학습자료/단답형/영어_단어_유의어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1233"/>
+  <dimension ref="A1:D1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24819,6 +24819,1644 @@
       </c>
       <c r="D1233" t="inlineStr"/>
     </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>adverse | 부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>disadvantageous</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>adverse | 부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>inimical</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>adverse | 부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>opposed</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>adverse | 부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>implicit</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>allusive | 암시적인</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>connotational</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>allusive | 암시적인</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>implied</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>allusive | 암시적인</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>shift</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>turn into | 바뀌다</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>turn into | 바뀌다</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>turn into | 바뀌다</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>translate</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>turn into | 바뀌다</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>dispense with</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>do without | ~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>get on without</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>do without | ~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>whistle for</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>do without | ~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>forgo</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>do without | ~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>put on | 상연하다</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>perform</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>put on | 상연하다</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>put on | 상연하다</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>enact</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>put on | 상연하다</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>relinquish</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>give up | 포기하다</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>give up | 포기하다</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>jettison</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>give up | 포기하다</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>waive</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>give up | 포기하다</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>disobedient</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>rebellious | 반항적인</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>defiant</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>rebellious | 반항적인</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>insubordinate</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>rebellious | 반항적인</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>contumacious</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>rebellious | 반항적인</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>insurgent</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>rebellious | 반항적인</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>privative</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>obedient</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>submissive</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>acquiescent</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>tractable</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>ductile</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>compliable</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>supple</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>passive | 수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>rapt</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>delirious | 기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>exultant</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>delirious | 기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>rapturous</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>delirious | 기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>ecstatic</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>delirious | 기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>scattered</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>sporadic | 이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>intermittent</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>sporadic | 이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>adventitious</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>sporadic | 이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>sporadic | 이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>lavish</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>prodigal | 낭비하는</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>thriftless</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>prodigal | 낭비하는</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>wasteful</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>prodigal | 낭비하는</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>profligate</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>prodigal | 낭비하는</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>falsity</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>perjury | 허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>fallacy</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>perjury | 허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>pretense</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>perjury | 허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>mendacity</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>perjury | 허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>unsettled</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>volatile</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>precarious</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>capricious</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>insecure</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>shaky</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>unstable | 불안정한</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>fatal</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>pernicious | 치명적인</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>deadly</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>pernicious | 치명적인</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>lethal</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>pernicious | 치명적인</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>mortal</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>pernicious | 치명적인</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>comeback</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>resurgence | 부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>revival</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>resurgence | 부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>resurrection</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>resurgence | 부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>resurgence | 부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>passing</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>disappearance | 소멸</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>extinguishment</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>disappearance | 소멸</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>vanishment</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>disappearance | 소멸</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>incentive</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>motivation | 동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>incitement</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>motivation | 동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>inducement</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>motivation | 동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>spur</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>motivation | 동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>paucity | 부족</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>shortage</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>paucity | 부족</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>dearth</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>paucity | 부족</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>insufficiency</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>paucity | 부족</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>nocturnal | 밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>overnight</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>nocturnal | 밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>after-dark</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>nocturnal | 밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>noctivagant</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>nocturnal | 밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>lone</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>sole</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>forlorn</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>desolate</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>lonsome</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>forsaken</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>bleak</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>dismal</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>dreary</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>solitary | 혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
